--- a/DMSNewVSale_2025-11-15_15-04.xlsx
+++ b/DMSNewVSale_2025-11-15_15-04.xlsx
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>22.7700</t>
+  </si>
+  <si>
+    <t>REVI 2 CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
   </si>
   <si>
     <t>ROWACHOL 45 CAPSULES</t>
@@ -1622,7 +1631,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1639,7 +1648,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1655,7 +1664,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1665,7 +1674,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1698,11 +1707,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>15</v>
@@ -1714,31 +1723,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1747,20 +1756,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1768,7 +1777,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1780,14 +1789,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1797,11 +1806,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -1813,14 +1822,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1834,10 +1843,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1846,31 +1855,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1879,28 +1888,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>24</v>
@@ -1912,31 +1921,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1952,13 +1961,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1969,7 +1978,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1985,21 +1994,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>24</v>
@@ -2011,28 +2020,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2044,28 +2053,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
@@ -2077,28 +2086,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2110,68 +2119,101 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="41" ht="26.25" customHeight="1">
-      <c r="N41" s="13">
-        <v>1488.9300000000001</v>
-      </c>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>122</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>111</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>87</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>123</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>124</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" ht="26.25" customHeight="1">
+      <c r="N42" s="13">
+        <v>1563.9300000000001</v>
+      </c>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>125</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>126</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>127</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2350,10 +2392,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
